--- a/misumi_bearings_A1.xlsx
+++ b/misumi_bearings_A1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>Days to Ship</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -464,14 +469,11 @@
           <t>C-E6000ZZ</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>C-E6000ZZ</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6000ZZ</t>
         </is>
       </c>
     </row>
@@ -484,14 +486,11 @@
           <t>C-E6001ZZ</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>C-E6001ZZ</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6001ZZ</t>
         </is>
       </c>
     </row>
@@ -504,14 +503,11 @@
           <t>C-E6002ZZ</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>C-E6002ZZ</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6002ZZ</t>
         </is>
       </c>
     </row>
@@ -524,14 +520,11 @@
           <t>C-E6003ZZ</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>C-E6003ZZ</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6003ZZ</t>
         </is>
       </c>
     </row>
@@ -544,14 +537,11 @@
           <t>C-E6004ZZ</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>C-E6004ZZ</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6004ZZ</t>
         </is>
       </c>
     </row>
@@ -564,14 +554,11 @@
           <t>C-E6005ZZ</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>C-E6005ZZ</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6005ZZ</t>
         </is>
       </c>
     </row>
@@ -584,14 +571,11 @@
           <t>C-E6006ZZ</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>C-E6006ZZ</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6006ZZ</t>
         </is>
       </c>
     </row>
@@ -604,14 +588,11 @@
           <t>C-E6007ZZ</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>C-E6007ZZ</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6007ZZ</t>
         </is>
       </c>
     </row>
@@ -624,14 +605,11 @@
           <t>C-E6008ZZ</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>C-E6008ZZ</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6008ZZ</t>
         </is>
       </c>
     </row>
@@ -644,14 +622,11 @@
           <t>C-E6009ZZ</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>C-E6009ZZ</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6009ZZ</t>
         </is>
       </c>
     </row>
@@ -664,14 +639,11 @@
           <t>C-E6010ZZ</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>C-E6010ZZ</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6010ZZ</t>
         </is>
       </c>
     </row>
@@ -684,14 +656,11 @@
           <t>C-E6200ZZ</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>C-E6200ZZ</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6200ZZ</t>
         </is>
       </c>
     </row>
@@ -704,14 +673,11 @@
           <t>C-E6201ZZ</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>C-E6201ZZ</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6201ZZ</t>
         </is>
       </c>
     </row>
@@ -724,14 +690,11 @@
           <t>C-E6202ZZ</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>C-E6202ZZ</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6202ZZ</t>
         </is>
       </c>
     </row>
@@ -744,14 +707,11 @@
           <t>C-E6203ZZ</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>C-E6203ZZ</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6203ZZ</t>
         </is>
       </c>
     </row>
@@ -764,14 +724,11 @@
           <t>C-E6204ZZ</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>C-E6204ZZ</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6204ZZ</t>
         </is>
       </c>
     </row>
@@ -784,14 +741,11 @@
           <t>C-E6205ZZ</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>C-E6205ZZ</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6205ZZ</t>
         </is>
       </c>
     </row>
@@ -804,14 +758,11 @@
           <t>C-E6206ZZ</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>C-E6206ZZ</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6206ZZ</t>
         </is>
       </c>
     </row>
@@ -824,14 +775,11 @@
           <t>C-E6207ZZ</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>C-E6207ZZ</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6207ZZ</t>
         </is>
       </c>
     </row>
@@ -844,14 +792,11 @@
           <t>C-E6208ZZ</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>C-E6208ZZ</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6208ZZ</t>
         </is>
       </c>
     </row>
@@ -864,14 +809,11 @@
           <t>C-E6209ZZ</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>C-E6209ZZ</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6209ZZ</t>
         </is>
       </c>
     </row>
@@ -884,14 +826,11 @@
           <t>C-E6210ZZ</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>C-E6210ZZ</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6210ZZ</t>
         </is>
       </c>
     </row>
@@ -904,14 +843,11 @@
           <t>C-E6300ZZ</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>C-E6300ZZ</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6300ZZ</t>
         </is>
       </c>
     </row>
@@ -924,14 +860,11 @@
           <t>C-E6301ZZ</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>C-E6301ZZ</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6301ZZ</t>
         </is>
       </c>
     </row>
@@ -944,14 +877,11 @@
           <t>C-E6302ZZ</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>C-E6302ZZ</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6302ZZ</t>
         </is>
       </c>
     </row>
@@ -964,14 +894,11 @@
           <t>C-E6303ZZ</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>C-E6303ZZ</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6303ZZ</t>
         </is>
       </c>
     </row>
@@ -984,14 +911,11 @@
           <t>C-E6304ZZ</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>C-E6304ZZ</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6304ZZ</t>
         </is>
       </c>
     </row>
@@ -1004,14 +928,11 @@
           <t>C-E6305ZZ</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>C-E6305ZZ</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6305ZZ</t>
         </is>
       </c>
     </row>
@@ -1024,14 +945,11 @@
           <t>C-E6306ZZ</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>C-E6306ZZ</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6306ZZ</t>
         </is>
       </c>
     </row>
@@ -1044,14 +962,11 @@
           <t>C-E6307ZZ</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>C-E6307ZZ</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6307ZZ</t>
         </is>
       </c>
     </row>
@@ -1064,14 +979,11 @@
           <t>C-E6308ZZ</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>C-E6308ZZ</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6308ZZ</t>
         </is>
       </c>
     </row>
@@ -1084,14 +996,11 @@
           <t>C-E6309ZZ</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>C-E6309ZZ</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6309ZZ</t>
         </is>
       </c>
     </row>
@@ -1104,14 +1013,11 @@
           <t>C-E6310ZZ</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>C-E6310ZZ</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6310ZZ</t>
         </is>
       </c>
     </row>
@@ -1124,14 +1030,11 @@
           <t>C-E6700ZZ</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>C-E6700ZZ</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6700ZZ</t>
         </is>
       </c>
     </row>
@@ -1144,14 +1047,11 @@
           <t>C-E6701ZZ</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>C-E6701ZZ</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6701ZZ</t>
         </is>
       </c>
     </row>
@@ -1164,14 +1064,11 @@
           <t>C-E6702ZZ</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>C-E6702ZZ</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6702ZZ</t>
         </is>
       </c>
     </row>
@@ -1184,14 +1081,11 @@
           <t>C-E6703ZZ</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>C-E6703ZZ</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6703ZZ</t>
         </is>
       </c>
     </row>
@@ -1204,14 +1098,11 @@
           <t>C-E6704ZZ</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>C-E6704ZZ</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6704ZZ</t>
         </is>
       </c>
     </row>
@@ -1224,14 +1115,11 @@
           <t>C-E6800ZZ</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>C-E6800ZZ</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6800ZZ</t>
         </is>
       </c>
     </row>
@@ -1244,14 +1132,11 @@
           <t>C-E6801ZZ</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>C-E6801ZZ</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6801ZZ</t>
         </is>
       </c>
     </row>
@@ -1264,14 +1149,11 @@
           <t>C-E6802ZZ</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>C-E6802ZZ</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6802ZZ</t>
         </is>
       </c>
     </row>
@@ -1284,14 +1166,11 @@
           <t>C-E6803ZZ</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>C-E6803ZZ</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6803ZZ</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1183,11 @@
           <t>C-E6804ZZ</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>C-E6804ZZ</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6804ZZ</t>
         </is>
       </c>
     </row>
@@ -1324,14 +1200,11 @@
           <t>C-E6805ZZ</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>C-E6805ZZ</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6805ZZ</t>
         </is>
       </c>
     </row>
@@ -1344,14 +1217,11 @@
           <t>C-E6806ZZ</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>C-E6806ZZ</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6806ZZ</t>
         </is>
       </c>
     </row>
@@ -1364,14 +1234,11 @@
           <t>C-E6807ZZ</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>C-E6807ZZ</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6807ZZ</t>
         </is>
       </c>
     </row>
@@ -1384,14 +1251,11 @@
           <t>C-E6808ZZ</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>C-E6808ZZ</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6808ZZ</t>
         </is>
       </c>
     </row>
@@ -1404,14 +1268,11 @@
           <t>C-E6809ZZ</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>C-E6809ZZ</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6809ZZ</t>
         </is>
       </c>
     </row>
@@ -1424,14 +1285,11 @@
           <t>C-E6810ZZ</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>C-E6810ZZ</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6810ZZ</t>
         </is>
       </c>
     </row>
@@ -1444,14 +1302,11 @@
           <t>C-E6900ZZ</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>C-E6900ZZ</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6900ZZ</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1319,11 @@
           <t>C-E6901ZZ</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>C-E6901ZZ</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6901ZZ</t>
         </is>
       </c>
     </row>
@@ -1484,14 +1336,11 @@
           <t>C-E6902ZZ</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>C-E6902ZZ</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6902ZZ</t>
         </is>
       </c>
     </row>
@@ -1504,14 +1353,11 @@
           <t>C-E6903ZZ</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>C-E6903ZZ</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6903ZZ</t>
         </is>
       </c>
     </row>
@@ -1524,14 +1370,11 @@
           <t>C-E6904ZZ</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>C-E6904ZZ</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6904ZZ</t>
         </is>
       </c>
     </row>
@@ -1544,14 +1387,11 @@
           <t>C-E6905ZZ</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>C-E6905ZZ</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6905ZZ</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1404,11 @@
           <t>C-E6906ZZ</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>C-E6906ZZ</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6906ZZ</t>
         </is>
       </c>
     </row>
@@ -1584,14 +1421,11 @@
           <t>C-E6907ZZ</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>C-E6907ZZ</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6907ZZ</t>
         </is>
       </c>
     </row>
@@ -1604,14 +1438,11 @@
           <t>C-E6908ZZ</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>C-E6908ZZ</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6908ZZ</t>
         </is>
       </c>
     </row>
@@ -1624,14 +1455,11 @@
           <t>C-E6909ZZ</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>C-E6909ZZ</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6909ZZ</t>
         </is>
       </c>
     </row>
@@ -1644,14 +1472,11 @@
           <t>C-E6910ZZ</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>C-E6910ZZ</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Cùng ngày</t>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://vn.misumi-ec.com/vona2/detail/110310367019/?HissuCode=C-E6910ZZ</t>
         </is>
       </c>
     </row>
